--- a/admin-drugs.xlsx
+++ b/admin-drugs.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc-6\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc-6\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18B0F36-3877-4BF8-92AA-97815F334D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB064FB-CE2A-414B-9AF5-B5CB02D2E24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7350" yWindow="855" windowWidth="18480" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7695" yWindow="1200" windowWidth="18480" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="drugs" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -76,6 +77,42 @@
   </si>
   <si>
     <t>imageUrl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> استامینوفن</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acetaminophen</t>
+  </si>
+  <si>
+    <t>تایلنول,پاراستامول</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> مسکن,تب‌بر</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> قرص,شربت</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> برای تسکین درد و کاهش تب استفاده می‌شود.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> تهوع,سردرد,خستگی</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> وارفارین,الکل</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> بیماری کبدی</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> در دمای اتاق و دور از نور مستقیم نگهداری شود.</t>
+  </si>
+  <si>
+    <t>بزرگسالان: هر 4-6 ساعت 500-1000 میلی‌گرم</t>
+  </si>
+  <si>
+    <t>https://picsum.photos/seed/drug1/400/400</t>
   </si>
 </sst>
 </file>
@@ -427,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="A2" sqref="A2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,7 +482,7 @@
     <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.28515625" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -493,6 +530,135 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA100F40-67CC-4832-AED8-0C46C3922599}">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
